--- a/medicine/Maladies infectieuses/Pandémie_de_Covid-19_en_Guinée-Bissau/Pandémie_de_Covid-19_en_Guinée-Bissau.xlsx
+++ b/medicine/Maladies infectieuses/Pandémie_de_Covid-19_en_Guinée-Bissau/Pandémie_de_Covid-19_en_Guinée-Bissau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_en_Guin%C3%A9e-Bissau</t>
+          <t>Pandémie_de_Covid-19_en_Guinée-Bissau</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La pandémie de Covid-19 est une crise sanitaire majeure provoquée par une maladie infectieuse émergente apparue fin 2019 en Chine continentale, la maladie à coronavirus 2019, dont l'agent pathogène est le SARS-CoV-2. Ce virus est à l'origine d'une pandémie[note 1], déclarée le 11 mars 2020 par l'Organisation mondiale de la santé.
 La pandémie de Covid-19 en Guinée-Bissau démarre officiellement le 25 mars 2020. À la date du 7 octobre 2022, le bilan est de 175 morts.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_en_Guin%C3%A9e-Bissau</t>
+          <t>Pandémie_de_Covid-19_en_Guinée-Bissau</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Chronologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 25 mars 2020, le premier ministre Nuno Gomes Nabiam annonce la détection de deux premiers cas de Covid-19 en Guinée-Bissau. Il s'agit d'un employé congolais de l'ONU et d'un citoyen indien. Ils sont tous deux placés en quarantaine[2]. La barre des dix cas confirmés est dépassée le 3 avril 2020, celle des 100 cas le 29 avril, et celle des 1 000 cas le 18 mai 2020[3].
-Le premier décès est intervenu le 26 avril 2020, le dixième décès le 5 juin 2020, et le 100ème décès le 22 août 2021[4].
-La campagne de vaccination contre la Covid-19  démarre officiellement le samedi 3 avril 2021. Le président bissau-guinéen Umaro Sissoco Embaló est le premier à recevoir sa première dose du vaccin AstraZeneca dans le cadre de ce lancement pour donner l'exemple[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 25 mars 2020, le premier ministre Nuno Gomes Nabiam annonce la détection de deux premiers cas de Covid-19 en Guinée-Bissau. Il s'agit d'un employé congolais de l'ONU et d'un citoyen indien. Ils sont tous deux placés en quarantaine. La barre des dix cas confirmés est dépassée le 3 avril 2020, celle des 100 cas le 29 avril, et celle des 1 000 cas le 18 mai 2020.
+Le premier décès est intervenu le 26 avril 2020, le dixième décès le 5 juin 2020, et le 100ème décès le 22 août 2021.
+La campagne de vaccination contre la Covid-19  démarre officiellement le samedi 3 avril 2021. Le président bissau-guinéen Umaro Sissoco Embaló est le premier à recevoir sa première dose du vaccin AstraZeneca dans le cadre de ce lancement pour donner l'exemple.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_en_Guin%C3%A9e-Bissau</t>
+          <t>Pandémie_de_Covid-19_en_Guinée-Bissau</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,6 +560,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
